--- a/datasets/createVizTest.xlsx
+++ b/datasets/createVizTest.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16828"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sriap\Downloads\EngagefinalSub\DataProjectMSFT\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\notes\Dropbox\Soubory pro výuku\ENG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A76DD2A-B02C-4252-A081-641C6B9029ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="11340" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="41">
   <si>
     <t>Model</t>
   </si>
@@ -130,120 +129,33 @@
     <t>Price</t>
   </si>
   <si>
-    <t>State</t>
+    <t>Color</t>
   </si>
   <si>
-    <t>Andhra Pradesh</t>
+    <t>On Stock from:</t>
   </si>
   <si>
-    <t>Arunachal Pradesh</t>
+    <t>Red</t>
   </si>
   <si>
-    <t>Assam</t>
+    <t>Yellow</t>
   </si>
   <si>
-    <t>Bihar</t>
+    <t>Silver</t>
   </si>
   <si>
-    <t>Chhattisgarh</t>
-  </si>
-  <si>
-    <t>Goa</t>
-  </si>
-  <si>
-    <t>Gujarat</t>
-  </si>
-  <si>
-    <t>Haryana</t>
-  </si>
-  <si>
-    <t>Himachal Pradesh</t>
-  </si>
-  <si>
-    <t>Jammu and Kashmir</t>
-  </si>
-  <si>
-    <t>Jharkhand</t>
-  </si>
-  <si>
-    <t>Karnataka</t>
-  </si>
-  <si>
-    <t>Kerala</t>
-  </si>
-  <si>
-    <t>Madhya Pradesh</t>
-  </si>
-  <si>
-    <t>Maharashtra</t>
-  </si>
-  <si>
-    <t>Manipur</t>
-  </si>
-  <si>
-    <t>Meghalaya</t>
-  </si>
-  <si>
-    <t>Mizoram</t>
-  </si>
-  <si>
-    <t>Nagaland</t>
-  </si>
-  <si>
-    <t>Odisha</t>
-  </si>
-  <si>
-    <t>Punjab</t>
-  </si>
-  <si>
-    <t>Rajasthan</t>
-  </si>
-  <si>
-    <t>Sikkim</t>
-  </si>
-  <si>
-    <t>Tamil Nadu</t>
-  </si>
-  <si>
-    <t>Telangana</t>
-  </si>
-  <si>
-    <t>Tripura</t>
-  </si>
-  <si>
-    <t>Uttarakhand</t>
-  </si>
-  <si>
-    <t>Uttar Pradesh</t>
-  </si>
-  <si>
-    <t>West Bengal</t>
-  </si>
-  <si>
-    <t>Andaman and Nicobar Islands</t>
-  </si>
-  <si>
-    <t>Chandigarh</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>Puducherry</t>
-  </si>
-  <si>
-    <t>Contribution to sales(%)</t>
+    <t>Blue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;Kč&quot;_-;\-* #,##0.00\ &quot;Kč&quot;_-;_-* &quot;-&quot;??\ &quot;Kč&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0\ &quot;Kč&quot;_-;\-* #,##0\ &quot;Kč&quot;_-;_-* &quot;-&quot;??\ &quot;Kč&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;Kč&quot;_-;\-* #,##0.00\ &quot;Kč&quot;_-;_-* &quot;-&quot;??\ &quot;Kč&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;Kč&quot;_-;\-* #,##0\ &quot;Kč&quot;_-;_-* &quot;-&quot;??\ &quot;Kč&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -263,26 +175,8 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,14 +189,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5F5F5"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -334,15 +222,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -358,18 +259,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -708,23 +602,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.36328125" customWidth="1"/>
-    <col min="5" max="5" width="21.90625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>33</v>
       </c>
@@ -734,14 +628,14 @@
       <c r="C1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="E1" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -751,14 +645,14 @@
       <c r="C2" s="2">
         <v>207000</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="12">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="9">
+        <v>42166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -768,14 +662,14 @@
       <c r="C3" s="2">
         <v>187000</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="12">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="9">
+        <v>42166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -785,14 +679,14 @@
       <c r="C4" s="2">
         <v>44000</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="12">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="9">
+        <v>42167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -802,14 +696,14 @@
       <c r="C5" s="2">
         <v>208000</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="9">
+        <v>42168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -819,14 +713,14 @@
       <c r="C6" s="2">
         <v>280000</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="12">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="9">
+        <v>42168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -836,14 +730,14 @@
       <c r="C7" s="2">
         <v>30000</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="9">
+        <v>42169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -853,14 +747,14 @@
       <c r="C8" s="2">
         <v>200000</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="12">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="9">
+        <v>42169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,14 +764,14 @@
       <c r="C9" s="2">
         <v>180000</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="12">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="9">
+        <v>42169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -887,14 +781,14 @@
       <c r="C10" s="2">
         <v>194000</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="12">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="9">
+        <v>42169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -904,14 +798,14 @@
       <c r="C11" s="2">
         <v>44000</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="9">
+        <v>42170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -921,14 +815,14 @@
       <c r="C12" s="2">
         <v>139000</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="12">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="9">
+        <v>42170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -938,14 +832,14 @@
       <c r="C13" s="2">
         <v>162000</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="12">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="9">
+        <v>42170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -955,14 +849,14 @@
       <c r="C14" s="2">
         <v>151000</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="12">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="9">
+        <v>42170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -972,14 +866,14 @@
       <c r="C15" s="2">
         <v>156000</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="9">
+        <v>42171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -989,14 +883,14 @@
       <c r="C16" s="2">
         <v>184000</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="12">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="9">
+        <v>42171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1006,14 +900,14 @@
       <c r="C17" s="2">
         <v>184000</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="12">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="9">
+        <v>42171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -1023,14 +917,14 @@
       <c r="C18" s="2">
         <v>199000</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="12">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="9">
+        <v>42171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -1040,14 +934,14 @@
       <c r="C19" s="2">
         <v>120000</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="12">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="9">
+        <v>42171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1057,14 +951,14 @@
       <c r="C20" s="2">
         <v>201000</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="12">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="9">
+        <v>42171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1074,14 +968,14 @@
       <c r="C21" s="2">
         <v>190000</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="12">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="9">
+        <v>42171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -1091,14 +985,14 @@
       <c r="C22" s="2">
         <v>179000</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="12">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="9">
+        <v>42171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -1108,14 +1002,14 @@
       <c r="C23" s="2">
         <v>174000</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="12">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="9">
+        <v>42171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -1125,14 +1019,14 @@
       <c r="C24" s="2">
         <v>139000</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="12">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="9">
+        <v>42171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -1142,14 +1036,14 @@
       <c r="C25" s="2">
         <v>300000</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="12">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="9">
+        <v>42171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -1159,14 +1053,14 @@
       <c r="C26" s="2">
         <v>195000</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="12">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="9">
+        <v>42172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
@@ -1176,14 +1070,14 @@
       <c r="C27" s="2">
         <v>174000</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="12">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="9">
+        <v>42172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -1193,14 +1087,14 @@
       <c r="C28" s="2">
         <v>157000</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="12">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="9">
+        <v>42172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -1210,14 +1104,14 @@
       <c r="C29" s="2">
         <v>137000</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="12">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="9">
+        <v>42172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
@@ -1227,14 +1121,14 @@
       <c r="C30" s="2">
         <v>179000</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="12">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="9">
+        <v>42173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -1244,14 +1138,14 @@
       <c r="C31" s="2">
         <v>56000</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="12">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="9">
+        <v>42173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -1261,14 +1155,14 @@
       <c r="C32" s="2">
         <v>190000</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="9">
+        <v>42173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -1278,14 +1172,14 @@
       <c r="C33" s="2">
         <v>201000</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" s="12">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="9">
+        <v>42173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>19</v>
       </c>
@@ -1295,14 +1189,14 @@
       <c r="C34" s="2">
         <v>190000</v>
       </c>
-      <c r="D34" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="12">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="9">
+        <v>42174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
@@ -1312,9 +1206,14 @@
       <c r="C35" s="2">
         <v>232000</v>
       </c>
-      <c r="E35" s="8"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="9">
+        <v>42174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
@@ -1324,9 +1223,14 @@
       <c r="C36" s="2">
         <v>210000</v>
       </c>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="9">
+        <v>42174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
@@ -1336,9 +1240,14 @@
       <c r="C37" s="2">
         <v>196000</v>
       </c>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="9">
+        <v>42176</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>18</v>
       </c>
@@ -1348,9 +1257,14 @@
       <c r="C38" s="2">
         <v>166000</v>
       </c>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="9">
+        <v>42176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
@@ -1360,9 +1274,14 @@
       <c r="C39" s="2">
         <v>164000</v>
       </c>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="9">
+        <v>42177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>4</v>
       </c>
@@ -1372,9 +1291,14 @@
       <c r="C40" s="2">
         <v>27000</v>
       </c>
-      <c r="E40" s="8"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="9">
+        <v>42178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>16</v>
       </c>
@@ -1384,9 +1308,14 @@
       <c r="C41" s="2">
         <v>198000</v>
       </c>
-      <c r="E41" s="8"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="9">
+        <v>42178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>9</v>
       </c>
@@ -1396,9 +1325,14 @@
       <c r="C42" s="2">
         <v>179000</v>
       </c>
-      <c r="E42" s="8"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="9">
+        <v>42178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>18</v>
       </c>
@@ -1408,9 +1342,14 @@
       <c r="C43" s="2">
         <v>278000</v>
       </c>
-      <c r="E43" s="8"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="9">
+        <v>42178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>1</v>
       </c>
@@ -1420,9 +1359,14 @@
       <c r="C44" s="2">
         <v>175000</v>
       </c>
-      <c r="E44" s="8"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="9">
+        <v>42178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -1432,9 +1376,14 @@
       <c r="C45" s="2">
         <v>39000</v>
       </c>
-      <c r="E45" s="8"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" s="9">
+        <v>42180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -1444,9 +1393,14 @@
       <c r="C46" s="2">
         <v>40000</v>
       </c>
-      <c r="E46" s="8"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="9">
+        <v>42180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -1456,9 +1410,14 @@
       <c r="C47" s="2">
         <v>178000</v>
       </c>
-      <c r="E47" s="8"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="9">
+        <v>42180</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1468,9 +1427,14 @@
       <c r="C48" s="2">
         <v>226000</v>
       </c>
-      <c r="E48" s="8"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" s="9">
+        <v>42180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>18</v>
       </c>
@@ -1480,9 +1444,14 @@
       <c r="C49" s="2">
         <v>216000</v>
       </c>
-      <c r="E49" s="8"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" s="9">
+        <v>42181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>4</v>
       </c>
@@ -1492,9 +1461,14 @@
       <c r="C50" s="2">
         <v>200000</v>
       </c>
-      <c r="E50" s="8"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="9">
+        <v>42181</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>18</v>
       </c>
@@ -1504,9 +1478,14 @@
       <c r="C51" s="2">
         <v>193000</v>
       </c>
-      <c r="E51" s="8"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="9">
+        <v>42181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>9</v>
       </c>
@@ -1516,9 +1495,14 @@
       <c r="C52" s="2">
         <v>51000</v>
       </c>
-      <c r="E52" s="8"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="9">
+        <v>42182</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>14</v>
       </c>
@@ -1528,9 +1512,14 @@
       <c r="C53" s="2">
         <v>269000</v>
       </c>
-      <c r="E53" s="8"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>38</v>
+      </c>
+      <c r="E53" s="9">
+        <v>42182</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>18</v>
       </c>
@@ -1540,9 +1529,14 @@
       <c r="C54" s="2">
         <v>258000</v>
       </c>
-      <c r="E54" s="8"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" s="9">
+        <v>42182</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>1</v>
       </c>
@@ -1552,9 +1546,14 @@
       <c r="C55" s="2">
         <v>168000</v>
       </c>
-      <c r="E55" s="8"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>39</v>
+      </c>
+      <c r="E55" s="9">
+        <v>42182</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -1564,9 +1563,14 @@
       <c r="C56" s="2">
         <v>201000</v>
       </c>
-      <c r="E56" s="8"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>39</v>
+      </c>
+      <c r="E56" s="9">
+        <v>42182</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>1</v>
       </c>
@@ -1576,9 +1580,14 @@
       <c r="C57" s="2">
         <v>197000</v>
       </c>
-      <c r="E57" s="8"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57" s="9">
+        <v>42183</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>19</v>
       </c>
@@ -1588,9 +1597,14 @@
       <c r="C58" s="2">
         <v>173000</v>
       </c>
-      <c r="E58" s="8"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58" s="9">
+        <v>42183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
@@ -1600,9 +1614,14 @@
       <c r="C59" s="2">
         <v>221000</v>
       </c>
-      <c r="E59" s="8"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>39</v>
+      </c>
+      <c r="E59" s="9">
+        <v>42183</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>19</v>
       </c>
@@ -1612,9 +1631,14 @@
       <c r="C60" s="2">
         <v>147000</v>
       </c>
-      <c r="E60" s="8"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>39</v>
+      </c>
+      <c r="E60" s="9">
+        <v>42183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>1</v>
       </c>
@@ -1624,9 +1648,14 @@
       <c r="C61" s="2">
         <v>151000</v>
       </c>
-      <c r="E61" s="8"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" s="9">
+        <v>42183</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -1636,9 +1665,14 @@
       <c r="C62" s="2">
         <v>156000</v>
       </c>
-      <c r="E62" s="8"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="9">
+        <v>42183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -1648,9 +1682,14 @@
       <c r="C63" s="2">
         <v>195000</v>
       </c>
-      <c r="E63" s="8"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" s="9">
+        <v>42184</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>1</v>
       </c>
@@ -1660,9 +1699,14 @@
       <c r="C64" s="2">
         <v>61000</v>
       </c>
-      <c r="E64" s="8"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>40</v>
+      </c>
+      <c r="E64" s="9">
+        <v>42185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>1</v>
       </c>
@@ -1672,9 +1716,14 @@
       <c r="C65" s="2">
         <v>174000</v>
       </c>
-      <c r="E65" s="8"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>39</v>
+      </c>
+      <c r="E65" s="9">
+        <v>42185</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>16</v>
       </c>
@@ -1684,9 +1733,14 @@
       <c r="C66" s="2">
         <v>157000</v>
       </c>
-      <c r="E66" s="8"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" s="9">
+        <v>42185</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -1696,9 +1750,14 @@
       <c r="C67" s="2">
         <v>89000</v>
       </c>
-      <c r="E67" s="8"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>40</v>
+      </c>
+      <c r="E67" s="9">
+        <v>42185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>4</v>
       </c>
@@ -1708,9 +1767,14 @@
       <c r="C68" s="2">
         <v>201000</v>
       </c>
-      <c r="E68" s="8"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>39</v>
+      </c>
+      <c r="E68" s="9">
+        <v>42186</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>14</v>
       </c>
@@ -1720,9 +1784,14 @@
       <c r="C69" s="2">
         <v>177000</v>
       </c>
-      <c r="E69" s="8"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>38</v>
+      </c>
+      <c r="E69" s="9">
+        <v>42186</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>9</v>
       </c>
@@ -1732,9 +1801,14 @@
       <c r="C70" s="2">
         <v>175000</v>
       </c>
-      <c r="E70" s="8"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>40</v>
+      </c>
+      <c r="E70" s="9">
+        <v>42186</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>1</v>
       </c>
@@ -1744,9 +1818,14 @@
       <c r="C71" s="2">
         <v>215000</v>
       </c>
-      <c r="E71" s="8"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>39</v>
+      </c>
+      <c r="E71" s="9">
+        <v>42187</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -1756,9 +1835,14 @@
       <c r="C72" s="2">
         <v>51000</v>
       </c>
-      <c r="E72" s="8"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>40</v>
+      </c>
+      <c r="E72" s="9">
+        <v>42187</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -1768,9 +1852,14 @@
       <c r="C73" s="2">
         <v>73000</v>
       </c>
-      <c r="E73" s="8"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>39</v>
+      </c>
+      <c r="E73" s="9">
+        <v>42187</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>19</v>
       </c>
@@ -1780,9 +1869,14 @@
       <c r="C74" s="2">
         <v>201000</v>
       </c>
-      <c r="E74" s="8"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>40</v>
+      </c>
+      <c r="E74" s="9">
+        <v>42188</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>7</v>
       </c>
@@ -1792,9 +1886,14 @@
       <c r="C75" s="2">
         <v>226000</v>
       </c>
-      <c r="E75" s="8"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>40</v>
+      </c>
+      <c r="E75" s="9">
+        <v>42188</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>19</v>
       </c>
@@ -1804,9 +1903,14 @@
       <c r="C76" s="2">
         <v>300000</v>
       </c>
-      <c r="E76" s="8"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>39</v>
+      </c>
+      <c r="E76" s="9">
+        <v>42188</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>18</v>
       </c>
@@ -1816,9 +1920,14 @@
       <c r="C77" s="2">
         <v>185000</v>
       </c>
-      <c r="E77" s="8"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>39</v>
+      </c>
+      <c r="E77" s="9">
+        <v>42188</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1</v>
       </c>
@@ -1828,9 +1937,14 @@
       <c r="C78" s="2">
         <v>68000</v>
       </c>
-      <c r="E78" s="8"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>40</v>
+      </c>
+      <c r="E78" s="9">
+        <v>42188</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -1840,9 +1954,14 @@
       <c r="C79" s="2">
         <v>190000</v>
       </c>
-      <c r="E79" s="8"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>37</v>
+      </c>
+      <c r="E79" s="9">
+        <v>42188</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>19</v>
       </c>
@@ -1852,9 +1971,14 @@
       <c r="C80" s="2">
         <v>135000</v>
       </c>
-      <c r="E80" s="8"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>37</v>
+      </c>
+      <c r="E80" s="9">
+        <v>42189</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>1</v>
       </c>
@@ -1864,9 +1988,14 @@
       <c r="C81" s="2">
         <v>188000</v>
       </c>
-      <c r="E81" s="8"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>39</v>
+      </c>
+      <c r="E81" s="9">
+        <v>42189</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>14</v>
       </c>
@@ -1876,9 +2005,14 @@
       <c r="C82" s="2">
         <v>247000</v>
       </c>
-      <c r="E82" s="8"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>39</v>
+      </c>
+      <c r="E82" s="9">
+        <v>42189</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>1</v>
       </c>
@@ -1888,9 +2022,14 @@
       <c r="C83" s="2">
         <v>68000</v>
       </c>
-      <c r="E83" s="8"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>39</v>
+      </c>
+      <c r="E83" s="9">
+        <v>42190</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>19</v>
       </c>
@@ -1900,9 +2039,14 @@
       <c r="C84" s="2">
         <v>137000</v>
       </c>
-      <c r="E84" s="8"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>38</v>
+      </c>
+      <c r="E84" s="9">
+        <v>42190</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>18</v>
       </c>
@@ -1912,9 +2056,14 @@
       <c r="C85" s="2">
         <v>120000</v>
       </c>
-      <c r="E85" s="8"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>39</v>
+      </c>
+      <c r="E85" s="9">
+        <v>42190</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>19</v>
       </c>
@@ -1924,9 +2073,14 @@
       <c r="C86" s="2">
         <v>208000</v>
       </c>
-      <c r="E86" s="8"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>39</v>
+      </c>
+      <c r="E86" s="9">
+        <v>42191</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>18</v>
       </c>
@@ -1936,9 +2090,14 @@
       <c r="C87" s="2">
         <v>211000</v>
       </c>
-      <c r="E87" s="8"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E87" s="9">
+        <v>42191</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>19</v>
       </c>
@@ -1948,9 +2107,14 @@
       <c r="C88" s="2">
         <v>162000</v>
       </c>
-      <c r="E88" s="8"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>39</v>
+      </c>
+      <c r="E88" s="9">
+        <v>42191</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>1</v>
       </c>
@@ -1960,9 +2124,14 @@
       <c r="C89" s="2">
         <v>216000</v>
       </c>
-      <c r="E89" s="8"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>39</v>
+      </c>
+      <c r="E89" s="9">
+        <v>42191</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>9</v>
       </c>
@@ -1972,9 +2141,14 @@
       <c r="C90" s="2">
         <v>190000</v>
       </c>
-      <c r="E90" s="8"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>39</v>
+      </c>
+      <c r="E90" s="9">
+        <v>42192</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -1984,9 +2158,14 @@
       <c r="C91" s="2">
         <v>145000</v>
       </c>
-      <c r="E91" s="8"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>40</v>
+      </c>
+      <c r="E91" s="9">
+        <v>42192</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>1</v>
       </c>
@@ -1996,9 +2175,14 @@
       <c r="C92" s="2">
         <v>216000</v>
       </c>
-      <c r="E92" s="8"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>38</v>
+      </c>
+      <c r="E92" s="9">
+        <v>42193</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>7</v>
       </c>
@@ -2008,9 +2192,14 @@
       <c r="C93" s="2">
         <v>188000</v>
       </c>
-      <c r="E93" s="8"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>37</v>
+      </c>
+      <c r="E93" s="9">
+        <v>42193</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>14</v>
       </c>
@@ -2020,9 +2209,14 @@
       <c r="C94" s="2">
         <v>109000</v>
       </c>
-      <c r="E94" s="8"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>39</v>
+      </c>
+      <c r="E94" s="9">
+        <v>42193</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>7</v>
       </c>
@@ -2032,9 +2226,14 @@
       <c r="C95" s="2">
         <v>267000</v>
       </c>
-      <c r="E95" s="8"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>39</v>
+      </c>
+      <c r="E95" s="9">
+        <v>42193</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>1</v>
       </c>
@@ -2044,9 +2243,14 @@
       <c r="C96" s="2">
         <v>200000</v>
       </c>
-      <c r="E96" s="8"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>39</v>
+      </c>
+      <c r="E96" s="9">
+        <v>42193</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>3</v>
       </c>
@@ -2056,9 +2260,14 @@
       <c r="C97" s="2">
         <v>175000</v>
       </c>
-      <c r="E97" s="8"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>39</v>
+      </c>
+      <c r="E97" s="9">
+        <v>42194</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>4</v>
       </c>
@@ -2068,9 +2277,14 @@
       <c r="C98" s="2">
         <v>27000</v>
       </c>
-      <c r="E98" s="8"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>37</v>
+      </c>
+      <c r="E98" s="9">
+        <v>42194</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>18</v>
       </c>
@@ -2080,9 +2294,14 @@
       <c r="C99" s="2">
         <v>151000</v>
       </c>
-      <c r="E99" s="8"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>39</v>
+      </c>
+      <c r="E99" s="9">
+        <v>42195</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>3</v>
       </c>
@@ -2092,9 +2311,14 @@
       <c r="C100" s="2">
         <v>280000</v>
       </c>
-      <c r="E100" s="8"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>39</v>
+      </c>
+      <c r="E100" s="9">
+        <v>42195</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>28</v>
       </c>
@@ -2104,9 +2328,14 @@
       <c r="C101" s="2">
         <v>164000</v>
       </c>
-      <c r="E101" s="8"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>39</v>
+      </c>
+      <c r="E101" s="9">
+        <v>42195</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>18</v>
       </c>
@@ -2116,9 +2345,14 @@
       <c r="C102" s="2">
         <v>120000</v>
       </c>
-      <c r="E102" s="8"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>38</v>
+      </c>
+      <c r="E102" s="9">
+        <v>42195</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>1</v>
       </c>
@@ -2128,9 +2362,14 @@
       <c r="C103" s="2">
         <v>243000</v>
       </c>
-      <c r="E103" s="8"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>39</v>
+      </c>
+      <c r="E103" s="9">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>1</v>
       </c>
@@ -2140,9 +2379,14 @@
       <c r="C104" s="2">
         <v>196000</v>
       </c>
-      <c r="E104" s="8"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>38</v>
+      </c>
+      <c r="E104" s="9">
+        <v>42197</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>14</v>
       </c>
@@ -2152,9 +2396,14 @@
       <c r="C105" s="2">
         <v>196000</v>
       </c>
-      <c r="E105" s="8"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>38</v>
+      </c>
+      <c r="E105" s="9">
+        <v>42197</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>16</v>
       </c>
@@ -2164,9 +2413,14 @@
       <c r="C106" s="2">
         <v>167000</v>
       </c>
-      <c r="E106" s="8"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>40</v>
+      </c>
+      <c r="E106" s="9">
+        <v>42197</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>4</v>
       </c>
@@ -2176,9 +2430,14 @@
       <c r="C107" s="2">
         <v>168000</v>
       </c>
-      <c r="E107" s="8"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>39</v>
+      </c>
+      <c r="E107" s="9">
+        <v>42197</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>14</v>
       </c>
@@ -2188,9 +2447,14 @@
       <c r="C108" s="2">
         <v>167000</v>
       </c>
-      <c r="E108" s="8"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>39</v>
+      </c>
+      <c r="E108" s="9">
+        <v>42197</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1</v>
       </c>
@@ -2200,9 +2464,14 @@
       <c r="C109" s="2">
         <v>173000</v>
       </c>
-      <c r="E109" s="8"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>39</v>
+      </c>
+      <c r="E109" s="9">
+        <v>42197</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>1</v>
       </c>
@@ -2212,9 +2481,14 @@
       <c r="C110" s="2">
         <v>173000</v>
       </c>
-      <c r="E110" s="8"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>38</v>
+      </c>
+      <c r="E110" s="9">
+        <v>42198</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>18</v>
       </c>
@@ -2224,9 +2498,14 @@
       <c r="C111" s="2">
         <v>184000</v>
       </c>
-      <c r="E111" s="8"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>39</v>
+      </c>
+      <c r="E111" s="9">
+        <v>42198</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>7</v>
       </c>
@@ -2236,9 +2515,14 @@
       <c r="C112" s="2">
         <v>186000</v>
       </c>
-      <c r="E112" s="8"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>39</v>
+      </c>
+      <c r="E112" s="9">
+        <v>42198</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>19</v>
       </c>
@@ -2248,9 +2532,14 @@
       <c r="C113" s="2">
         <v>168000</v>
       </c>
-      <c r="E113" s="8"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>40</v>
+      </c>
+      <c r="E113" s="9">
+        <v>42198</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>1</v>
       </c>
@@ -2260,9 +2549,14 @@
       <c r="C114" s="2">
         <v>106000</v>
       </c>
-      <c r="E114" s="8"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>40</v>
+      </c>
+      <c r="E114" s="9">
+        <v>42199</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>19</v>
       </c>
@@ -2272,9 +2566,14 @@
       <c r="C115" s="2">
         <v>168000</v>
       </c>
-      <c r="E115" s="8"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>37</v>
+      </c>
+      <c r="E115" s="9">
+        <v>42199</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>19</v>
       </c>
@@ -2284,9 +2583,14 @@
       <c r="C116" s="2">
         <v>226000</v>
       </c>
-      <c r="E116" s="8"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>40</v>
+      </c>
+      <c r="E116" s="9">
+        <v>42199</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>9</v>
       </c>
@@ -2296,9 +2600,14 @@
       <c r="C117" s="2">
         <v>189000</v>
       </c>
-      <c r="E117" s="8"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>40</v>
+      </c>
+      <c r="E117" s="9">
+        <v>42199</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>19</v>
       </c>
@@ -2308,9 +2617,14 @@
       <c r="C118" s="2">
         <v>137000</v>
       </c>
-      <c r="E118" s="8"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>39</v>
+      </c>
+      <c r="E118" s="9">
+        <v>42199</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>18</v>
       </c>
@@ -2320,9 +2634,14 @@
       <c r="C119" s="2">
         <v>184000</v>
       </c>
-      <c r="E119" s="8"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>39</v>
+      </c>
+      <c r="E119" s="9">
+        <v>42199</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>1</v>
       </c>
@@ -2332,9 +2651,14 @@
       <c r="C120" s="2">
         <v>243000</v>
       </c>
-      <c r="E120" s="8"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>39</v>
+      </c>
+      <c r="E120" s="9">
+        <v>42199</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>4</v>
       </c>
@@ -2344,9 +2668,14 @@
       <c r="C121" s="2">
         <v>73000</v>
       </c>
-      <c r="E121" s="8"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>37</v>
+      </c>
+      <c r="E121" s="9">
+        <v>42200</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>19</v>
       </c>
@@ -2356,9 +2685,14 @@
       <c r="C122" s="2">
         <v>189000</v>
       </c>
-      <c r="E122" s="8"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>39</v>
+      </c>
+      <c r="E122" s="9">
+        <v>42200</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>1</v>
       </c>
@@ -2368,9 +2702,14 @@
       <c r="C123" s="2">
         <v>163000</v>
       </c>
-      <c r="E123" s="8"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>39</v>
+      </c>
+      <c r="E123" s="9">
+        <v>42200</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>4</v>
       </c>
@@ -2380,9 +2719,14 @@
       <c r="C124" s="2">
         <v>157000</v>
       </c>
-      <c r="E124" s="8"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>39</v>
+      </c>
+      <c r="E124" s="9">
+        <v>42200</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>4</v>
       </c>
@@ -2392,9 +2736,14 @@
       <c r="C125" s="2">
         <v>120000</v>
       </c>
-      <c r="E125" s="8"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>39</v>
+      </c>
+      <c r="E125" s="9">
+        <v>42201</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>1</v>
       </c>
@@ -2404,9 +2753,14 @@
       <c r="C126" s="2">
         <v>189000</v>
       </c>
-      <c r="E126" s="8"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>40</v>
+      </c>
+      <c r="E126" s="9">
+        <v>42201</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>1</v>
       </c>
@@ -2416,9 +2770,14 @@
       <c r="C127" s="2">
         <v>187000</v>
       </c>
-      <c r="E127" s="8"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>40</v>
+      </c>
+      <c r="E127" s="9">
+        <v>42201</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>18</v>
       </c>
@@ -2428,9 +2787,14 @@
       <c r="C128" s="2">
         <v>167000</v>
       </c>
-      <c r="E128" s="8"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>40</v>
+      </c>
+      <c r="E128" s="9">
+        <v>42201</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>19</v>
       </c>
@@ -2440,9 +2804,14 @@
       <c r="C129" s="2">
         <v>210000</v>
       </c>
-      <c r="E129" s="8"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>40</v>
+      </c>
+      <c r="E129" s="9">
+        <v>42201</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -2452,9 +2821,14 @@
       <c r="C130" s="2">
         <v>39000</v>
       </c>
-      <c r="E130" s="8"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
+        <v>39</v>
+      </c>
+      <c r="E130" s="9">
+        <v>42201</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>19</v>
       </c>
@@ -2464,9 +2838,14 @@
       <c r="C131" s="2">
         <v>168000</v>
       </c>
-      <c r="E131" s="8"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>39</v>
+      </c>
+      <c r="E131" s="9">
+        <v>42202</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>1</v>
       </c>
@@ -2476,9 +2855,14 @@
       <c r="C132" s="2">
         <v>205000</v>
       </c>
-      <c r="E132" s="8"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>39</v>
+      </c>
+      <c r="E132" s="9">
+        <v>42203</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>4</v>
       </c>
@@ -2488,9 +2872,14 @@
       <c r="C133" s="2">
         <v>204000</v>
       </c>
-      <c r="E133" s="8"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
+        <v>39</v>
+      </c>
+      <c r="E133" s="9">
+        <v>42203</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>14</v>
       </c>
@@ -2500,9 +2889,14 @@
       <c r="C134" s="2">
         <v>258000</v>
       </c>
-      <c r="E134" s="8"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
+        <v>39</v>
+      </c>
+      <c r="E134" s="9">
+        <v>42203</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>19</v>
       </c>
@@ -2512,9 +2906,14 @@
       <c r="C135" s="2">
         <v>168000</v>
       </c>
-      <c r="E135" s="8"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
+        <v>39</v>
+      </c>
+      <c r="E135" s="9">
+        <v>42204</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>9</v>
       </c>
@@ -2524,9 +2923,14 @@
       <c r="C136" s="2">
         <v>243000</v>
       </c>
-      <c r="E136" s="8"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
+        <v>39</v>
+      </c>
+      <c r="E136" s="9">
+        <v>42205</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>19</v>
       </c>
@@ -2536,9 +2940,14 @@
       <c r="C137" s="2">
         <v>135000</v>
       </c>
-      <c r="E137" s="8"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
+        <v>40</v>
+      </c>
+      <c r="E137" s="9">
+        <v>42205</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>14</v>
       </c>
@@ -2548,9 +2957,14 @@
       <c r="C138" s="2">
         <v>80000</v>
       </c>
-      <c r="E138" s="8"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
+        <v>39</v>
+      </c>
+      <c r="E138" s="9">
+        <v>42206</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>4</v>
       </c>
@@ -2560,9 +2974,14 @@
       <c r="C139" s="2">
         <v>173000</v>
       </c>
-      <c r="E139" s="8"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
+        <v>37</v>
+      </c>
+      <c r="E139" s="9">
+        <v>42206</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>16</v>
       </c>
@@ -2572,9 +2991,14 @@
       <c r="C140" s="2">
         <v>118000</v>
       </c>
-      <c r="E140" s="8"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>37</v>
+      </c>
+      <c r="E140" s="9">
+        <v>42206</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>14</v>
       </c>
@@ -2584,9 +3008,14 @@
       <c r="C141" s="2">
         <v>90000</v>
       </c>
-      <c r="E141" s="8"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
+        <v>38</v>
+      </c>
+      <c r="E141" s="9">
+        <v>42207</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>14</v>
       </c>
@@ -2596,9 +3025,14 @@
       <c r="C142" s="2">
         <v>176000</v>
       </c>
-      <c r="E142" s="8"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>39</v>
+      </c>
+      <c r="E142" s="9">
+        <v>42207</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>1</v>
       </c>
@@ -2608,9 +3042,14 @@
       <c r="C143" s="2">
         <v>87000</v>
       </c>
-      <c r="E143" s="8"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
+        <v>39</v>
+      </c>
+      <c r="E143" s="9">
+        <v>42207</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>4</v>
       </c>
@@ -2620,9 +3059,14 @@
       <c r="C144" s="2">
         <v>193000</v>
       </c>
-      <c r="E144" s="8"/>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>39</v>
+      </c>
+      <c r="E144" s="9">
+        <v>42207</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>4</v>
       </c>
@@ -2632,9 +3076,14 @@
       <c r="C145" s="2">
         <v>178000</v>
       </c>
-      <c r="E145" s="8"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
+        <v>39</v>
+      </c>
+      <c r="E145" s="9">
+        <v>42208</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>19</v>
       </c>
@@ -2644,9 +3093,14 @@
       <c r="C146" s="2">
         <v>201000</v>
       </c>
-      <c r="E146" s="8"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>39</v>
+      </c>
+      <c r="E146" s="9">
+        <v>42208</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>1</v>
       </c>
@@ -2656,9 +3110,14 @@
       <c r="C147" s="2">
         <v>201000</v>
       </c>
-      <c r="E147" s="8"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D147" t="s">
+        <v>39</v>
+      </c>
+      <c r="E147" s="9">
+        <v>42208</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>14</v>
       </c>
@@ -2668,9 +3127,14 @@
       <c r="C148" s="2">
         <v>289000</v>
       </c>
-      <c r="E148" s="8"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D148" t="s">
+        <v>37</v>
+      </c>
+      <c r="E148" s="9">
+        <v>42208</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>16</v>
       </c>
@@ -2680,9 +3144,14 @@
       <c r="C149" s="2">
         <v>169000</v>
       </c>
-      <c r="E149" s="8"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
+        <v>40</v>
+      </c>
+      <c r="E149" s="9">
+        <v>42208</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>1</v>
       </c>
@@ -2692,9 +3161,14 @@
       <c r="C150" s="2">
         <v>158000</v>
       </c>
-      <c r="E150" s="8"/>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D150" t="s">
+        <v>40</v>
+      </c>
+      <c r="E150" s="9">
+        <v>42208</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>14</v>
       </c>
@@ -2704,9 +3178,14 @@
       <c r="C151" s="2">
         <v>178000</v>
       </c>
-      <c r="E151" s="8"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D151" t="s">
+        <v>40</v>
+      </c>
+      <c r="E151" s="9">
+        <v>42208</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>30</v>
       </c>
@@ -2716,9 +3195,14 @@
       <c r="C152" s="2">
         <v>123000</v>
       </c>
-      <c r="E152" s="8"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D152" t="s">
+        <v>39</v>
+      </c>
+      <c r="E152" s="9">
+        <v>42208</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>18</v>
       </c>
@@ -2728,9 +3212,14 @@
       <c r="C153" s="2">
         <v>120000</v>
       </c>
-      <c r="E153" s="8"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D153" t="s">
+        <v>39</v>
+      </c>
+      <c r="E153" s="9">
+        <v>42209</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>4</v>
       </c>
@@ -2740,9 +3229,14 @@
       <c r="C154" s="2">
         <v>174000</v>
       </c>
-      <c r="E154" s="8"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D154" t="s">
+        <v>39</v>
+      </c>
+      <c r="E154" s="9">
+        <v>42209</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>1</v>
       </c>
@@ -2752,9 +3246,14 @@
       <c r="C155" s="2">
         <v>163000</v>
       </c>
-      <c r="E155" s="8"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D155" t="s">
+        <v>39</v>
+      </c>
+      <c r="E155" s="9">
+        <v>42209</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>7</v>
       </c>
@@ -2764,9 +3263,14 @@
       <c r="C156" s="2">
         <v>208000</v>
       </c>
-      <c r="E156" s="8"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
+        <v>39</v>
+      </c>
+      <c r="E156" s="9">
+        <v>42210</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>4</v>
       </c>
@@ -2776,9 +3280,14 @@
       <c r="C157" s="2">
         <v>197000</v>
       </c>
-      <c r="E157" s="8"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D157" t="s">
+        <v>39</v>
+      </c>
+      <c r="E157" s="9">
+        <v>42210</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>3</v>
       </c>
@@ -2788,9 +3297,14 @@
       <c r="C158" s="2">
         <v>183000</v>
       </c>
-      <c r="E158" s="8"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D158" t="s">
+        <v>39</v>
+      </c>
+      <c r="E158" s="9">
+        <v>42210</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>16</v>
       </c>
@@ -2800,9 +3314,14 @@
       <c r="C159" s="2">
         <v>209000</v>
       </c>
-      <c r="E159" s="8"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D159" t="s">
+        <v>38</v>
+      </c>
+      <c r="E159" s="9">
+        <v>42210</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>16</v>
       </c>
@@ -2812,9 +3331,14 @@
       <c r="C160" s="2">
         <v>278000</v>
       </c>
-      <c r="E160" s="8"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
+        <v>40</v>
+      </c>
+      <c r="E160" s="9">
+        <v>42211</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>16</v>
       </c>
@@ -2824,9 +3348,14 @@
       <c r="C161" s="2">
         <v>209000</v>
       </c>
-      <c r="E161" s="8"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
+        <v>40</v>
+      </c>
+      <c r="E161" s="9">
+        <v>42212</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>19</v>
       </c>
@@ -2836,9 +3365,14 @@
       <c r="C162" s="2">
         <v>200000</v>
       </c>
-      <c r="E162" s="8"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D162" t="s">
+        <v>39</v>
+      </c>
+      <c r="E162" s="9">
+        <v>42212</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>9</v>
       </c>
@@ -2848,9 +3382,14 @@
       <c r="C163" s="2">
         <v>221000</v>
       </c>
-      <c r="E163" s="8"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D163" t="s">
+        <v>39</v>
+      </c>
+      <c r="E163" s="9">
+        <v>42212</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>19</v>
       </c>
@@ -2860,9 +3399,14 @@
       <c r="C164" s="2">
         <v>98000</v>
       </c>
-      <c r="E164" s="8"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D164" t="s">
+        <v>38</v>
+      </c>
+      <c r="E164" s="9">
+        <v>42212</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>4</v>
       </c>
@@ -2872,9 +3416,14 @@
       <c r="C165" s="2">
         <v>34000</v>
       </c>
-      <c r="E165" s="8"/>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D165" t="s">
+        <v>38</v>
+      </c>
+      <c r="E165" s="9">
+        <v>42212</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>16</v>
       </c>
@@ -2884,9 +3433,14 @@
       <c r="C166" s="2">
         <v>182000</v>
       </c>
-      <c r="E166" s="8"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
+        <v>37</v>
+      </c>
+      <c r="E166" s="9">
+        <v>42212</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>18</v>
       </c>
@@ -2896,9 +3450,14 @@
       <c r="C167" s="2">
         <v>184000</v>
       </c>
-      <c r="E167" s="8"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
+        <v>38</v>
+      </c>
+      <c r="E167" s="9">
+        <v>42212</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>4</v>
       </c>
@@ -2908,9 +3467,14 @@
       <c r="C168" s="2">
         <v>190000</v>
       </c>
-      <c r="E168" s="8"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
+        <v>40</v>
+      </c>
+      <c r="E168" s="9">
+        <v>42213</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>18</v>
       </c>
@@ -2920,9 +3484,14 @@
       <c r="C169" s="2">
         <v>186000</v>
       </c>
-      <c r="E169" s="8"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D169" t="s">
+        <v>39</v>
+      </c>
+      <c r="E169" s="9">
+        <v>42213</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>16</v>
       </c>
@@ -2932,9 +3501,14 @@
       <c r="C170" s="2">
         <v>191000</v>
       </c>
-      <c r="E170" s="8"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
+        <v>39</v>
+      </c>
+      <c r="E170" s="9">
+        <v>42214</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>7</v>
       </c>
@@ -2944,9 +3518,14 @@
       <c r="C171" s="2">
         <v>215000</v>
       </c>
-      <c r="E171" s="8"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D171" t="s">
+        <v>39</v>
+      </c>
+      <c r="E171" s="9">
+        <v>42214</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>3</v>
       </c>
@@ -2956,9 +3535,14 @@
       <c r="C172" s="2">
         <v>179000</v>
       </c>
-      <c r="E172" s="8"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D172" t="s">
+        <v>39</v>
+      </c>
+      <c r="E172" s="9">
+        <v>42214</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>16</v>
       </c>
@@ -2968,9 +3552,14 @@
       <c r="C173" s="2">
         <v>198000</v>
       </c>
-      <c r="E173" s="8"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D173" t="s">
+        <v>40</v>
+      </c>
+      <c r="E173" s="9">
+        <v>42215</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>14</v>
       </c>
@@ -2980,9 +3569,14 @@
       <c r="C174" s="2">
         <v>190000</v>
       </c>
-      <c r="E174" s="8"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D174" t="s">
+        <v>37</v>
+      </c>
+      <c r="E174" s="9">
+        <v>42216</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>4</v>
       </c>
@@ -2992,9 +3586,14 @@
       <c r="C175" s="2">
         <v>169000</v>
       </c>
-      <c r="E175" s="8"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D175" t="s">
+        <v>39</v>
+      </c>
+      <c r="E175" s="9">
+        <v>42216</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>19</v>
       </c>
@@ -3004,9 +3603,14 @@
       <c r="C176" s="2">
         <v>208000</v>
       </c>
-      <c r="E176" s="8"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D176" t="s">
+        <v>39</v>
+      </c>
+      <c r="E176" s="9">
+        <v>42216</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>9</v>
       </c>
@@ -3016,9 +3620,14 @@
       <c r="C177" s="2">
         <v>185000</v>
       </c>
-      <c r="E177" s="8"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D177" t="s">
+        <v>39</v>
+      </c>
+      <c r="E177" s="9">
+        <v>42217</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>19</v>
       </c>
@@ -3028,9 +3637,14 @@
       <c r="C178" s="2">
         <v>162000</v>
       </c>
-      <c r="E178" s="8"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D178" t="s">
+        <v>39</v>
+      </c>
+      <c r="E178" s="9">
+        <v>42217</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>19</v>
       </c>
@@ -3040,9 +3654,14 @@
       <c r="C179" s="2">
         <v>162000</v>
       </c>
-      <c r="E179" s="8"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D179" t="s">
+        <v>39</v>
+      </c>
+      <c r="E179" s="9">
+        <v>42218</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>16</v>
       </c>
@@ -3052,9 +3671,14 @@
       <c r="C180" s="2">
         <v>289000</v>
       </c>
-      <c r="E180" s="8"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D180" t="s">
+        <v>37</v>
+      </c>
+      <c r="E180" s="9">
+        <v>42218</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>4</v>
       </c>
@@ -3064,9 +3688,14 @@
       <c r="C181" s="2">
         <v>174000</v>
       </c>
-      <c r="E181" s="8"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D181" t="s">
+        <v>40</v>
+      </c>
+      <c r="E181" s="9">
+        <v>42218</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>9</v>
       </c>
@@ -3076,9 +3705,14 @@
       <c r="C182" s="2">
         <v>191000</v>
       </c>
-      <c r="E182" s="8"/>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D182" t="s">
+        <v>38</v>
+      </c>
+      <c r="E182" s="9">
+        <v>42218</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>4</v>
       </c>
@@ -3088,9 +3722,14 @@
       <c r="C183" s="2">
         <v>34000</v>
       </c>
-      <c r="E183" s="8"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D183" t="s">
+        <v>39</v>
+      </c>
+      <c r="E183" s="9">
+        <v>42219</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>1</v>
       </c>
@@ -3100,9 +3739,14 @@
       <c r="C184" s="2">
         <v>199000</v>
       </c>
-      <c r="E184" s="8"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D184" t="s">
+        <v>38</v>
+      </c>
+      <c r="E184" s="9">
+        <v>42219</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>1</v>
       </c>
@@ -3112,9 +3756,14 @@
       <c r="C185" s="2">
         <v>208000</v>
       </c>
-      <c r="E185" s="8"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D185" t="s">
+        <v>39</v>
+      </c>
+      <c r="E185" s="9">
+        <v>42219</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>1</v>
       </c>
@@ -3124,9 +3773,14 @@
       <c r="C186" s="2">
         <v>98000</v>
       </c>
-      <c r="E186" s="8"/>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D186" t="s">
+        <v>38</v>
+      </c>
+      <c r="E186" s="9">
+        <v>42219</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>16</v>
       </c>
@@ -3136,9 +3790,14 @@
       <c r="C187" s="2">
         <v>185000</v>
       </c>
-      <c r="E187" s="8"/>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D187" t="s">
+        <v>39</v>
+      </c>
+      <c r="E187" s="9">
+        <v>42219</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>3</v>
       </c>
@@ -3148,9 +3807,14 @@
       <c r="C188" s="2">
         <v>178000</v>
       </c>
-      <c r="E188" s="8"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D188" t="s">
+        <v>39</v>
+      </c>
+      <c r="E188" s="9">
+        <v>42219</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>19</v>
       </c>
@@ -3160,9 +3824,14 @@
       <c r="C189" s="2">
         <v>176000</v>
       </c>
-      <c r="E189" s="8"/>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D189" t="s">
+        <v>37</v>
+      </c>
+      <c r="E189" s="9">
+        <v>42219</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>18</v>
       </c>
@@ -3172,9 +3841,14 @@
       <c r="C190" s="2">
         <v>120000</v>
       </c>
-      <c r="E190" s="8"/>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D190" t="s">
+        <v>39</v>
+      </c>
+      <c r="E190" s="9">
+        <v>42220</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>19</v>
       </c>
@@ -3184,9 +3858,14 @@
       <c r="C191" s="2">
         <v>189000</v>
       </c>
-      <c r="E191" s="8"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D191" t="s">
+        <v>39</v>
+      </c>
+      <c r="E191" s="9">
+        <v>42220</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>7</v>
       </c>
@@ -3196,9 +3875,14 @@
       <c r="C192" s="2">
         <v>165000</v>
       </c>
-      <c r="E192" s="8"/>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D192" t="s">
+        <v>39</v>
+      </c>
+      <c r="E192" s="9">
+        <v>42220</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>3</v>
       </c>
@@ -3208,9 +3892,14 @@
       <c r="C193" s="2">
         <v>22000</v>
       </c>
-      <c r="E193" s="8"/>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D193" t="s">
+        <v>38</v>
+      </c>
+      <c r="E193" s="9">
+        <v>42221</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>1</v>
       </c>
@@ -3220,9 +3909,14 @@
       <c r="C194" s="2">
         <v>162000</v>
       </c>
-      <c r="E194" s="8"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D194" t="s">
+        <v>40</v>
+      </c>
+      <c r="E194" s="9">
+        <v>42221</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>1</v>
       </c>
@@ -3232,9 +3926,14 @@
       <c r="C195" s="2">
         <v>211000</v>
       </c>
-      <c r="E195" s="8"/>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D195" t="s">
+        <v>37</v>
+      </c>
+      <c r="E195" s="9">
+        <v>42221</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>4</v>
       </c>
@@ -3244,9 +3943,14 @@
       <c r="C196" s="2">
         <v>155000</v>
       </c>
-      <c r="E196" s="8"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D196" t="s">
+        <v>38</v>
+      </c>
+      <c r="E196" s="9">
+        <v>42221</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>7</v>
       </c>
@@ -3256,9 +3960,14 @@
       <c r="C197" s="2">
         <v>207000</v>
       </c>
-      <c r="E197" s="8"/>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D197" t="s">
+        <v>40</v>
+      </c>
+      <c r="E197" s="9">
+        <v>42221</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>28</v>
       </c>
@@ -3268,9 +3977,14 @@
       <c r="C198" s="2">
         <v>120000</v>
       </c>
-      <c r="E198" s="8"/>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D198" t="s">
+        <v>40</v>
+      </c>
+      <c r="E198" s="9">
+        <v>42221</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>9</v>
       </c>
@@ -3280,9 +3994,14 @@
       <c r="C199" s="2">
         <v>195000</v>
       </c>
-      <c r="E199" s="8"/>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D199" t="s">
+        <v>39</v>
+      </c>
+      <c r="E199" s="9">
+        <v>42222</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>18</v>
       </c>
@@ -3292,9 +4011,14 @@
       <c r="C200" s="2">
         <v>146000</v>
       </c>
-      <c r="E200" s="8"/>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D200" t="s">
+        <v>40</v>
+      </c>
+      <c r="E200" s="9">
+        <v>42222</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>9</v>
       </c>
@@ -3304,9 +4028,14 @@
       <c r="C201" s="2">
         <v>204000</v>
       </c>
-      <c r="E201" s="8"/>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D201" t="s">
+        <v>37</v>
+      </c>
+      <c r="E201" s="9">
+        <v>42223</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>9</v>
       </c>
@@ -3316,9 +4045,14 @@
       <c r="C202" s="2">
         <v>145000</v>
       </c>
-      <c r="E202" s="8"/>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D202" t="s">
+        <v>40</v>
+      </c>
+      <c r="E202" s="9">
+        <v>42224</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>18</v>
       </c>
@@ -3328,9 +4062,14 @@
       <c r="C203" s="2">
         <v>269000</v>
       </c>
-      <c r="E203" s="8"/>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D203" t="s">
+        <v>38</v>
+      </c>
+      <c r="E203" s="9">
+        <v>42224</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>4</v>
       </c>
@@ -3340,9 +4079,14 @@
       <c r="C204" s="2">
         <v>178000</v>
       </c>
-      <c r="E204" s="8"/>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D204" t="s">
+        <v>39</v>
+      </c>
+      <c r="E204" s="9">
+        <v>42224</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>7</v>
       </c>
@@ -3352,9 +4096,14 @@
       <c r="C205" s="2">
         <v>208000</v>
       </c>
-      <c r="E205" s="8"/>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D205" t="s">
+        <v>37</v>
+      </c>
+      <c r="E205" s="9">
+        <v>42224</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>19</v>
       </c>
@@ -3364,9 +4113,14 @@
       <c r="C206" s="2">
         <v>177000</v>
       </c>
-      <c r="E206" s="8"/>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D206" t="s">
+        <v>40</v>
+      </c>
+      <c r="E206" s="9">
+        <v>42225</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>1</v>
       </c>
@@ -3376,9 +4130,14 @@
       <c r="C207" s="2">
         <v>247000</v>
       </c>
-      <c r="E207" s="8"/>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D207" t="s">
+        <v>39</v>
+      </c>
+      <c r="E207" s="9">
+        <v>42226</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>1</v>
       </c>
@@ -3388,9 +4147,14 @@
       <c r="C208" s="2">
         <v>179000</v>
       </c>
-      <c r="E208" s="8"/>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D208" t="s">
+        <v>40</v>
+      </c>
+      <c r="E208" s="9">
+        <v>42227</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>7</v>
       </c>
@@ -3400,9 +4164,14 @@
       <c r="C209" s="2">
         <v>199000</v>
       </c>
-      <c r="E209" s="8"/>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D209" t="s">
+        <v>40</v>
+      </c>
+      <c r="E209" s="9">
+        <v>42227</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>14</v>
       </c>
@@ -3412,9 +4181,14 @@
       <c r="C210" s="2">
         <v>205000</v>
       </c>
-      <c r="E210" s="8"/>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D210" t="s">
+        <v>39</v>
+      </c>
+      <c r="E210" s="9">
+        <v>42228</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>1</v>
       </c>
@@ -3424,9 +4198,14 @@
       <c r="C211" s="2">
         <v>166000</v>
       </c>
-      <c r="E211" s="8"/>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D211" t="s">
+        <v>39</v>
+      </c>
+      <c r="E211" s="9">
+        <v>42228</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>9</v>
       </c>
@@ -3436,9 +4215,14 @@
       <c r="C212" s="2">
         <v>87000</v>
       </c>
-      <c r="E212" s="8"/>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D212" t="s">
+        <v>39</v>
+      </c>
+      <c r="E212" s="9">
+        <v>42228</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>9</v>
       </c>
@@ -3448,9 +4232,14 @@
       <c r="C213" s="2">
         <v>89000</v>
       </c>
-      <c r="E213" s="8"/>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D213" t="s">
+        <v>39</v>
+      </c>
+      <c r="E213" s="9">
+        <v>42229</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>16</v>
       </c>
@@ -3460,9 +4249,14 @@
       <c r="C214" s="2">
         <v>118000</v>
       </c>
-      <c r="E214" s="8"/>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D214" t="s">
+        <v>39</v>
+      </c>
+      <c r="E214" s="9">
+        <v>42229</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>18</v>
       </c>
@@ -3472,9 +4266,14 @@
       <c r="C215" s="2">
         <v>186000</v>
       </c>
-      <c r="E215" s="8"/>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D215" t="s">
+        <v>39</v>
+      </c>
+      <c r="E215" s="9">
+        <v>42229</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>9</v>
       </c>
@@ -3484,9 +4283,14 @@
       <c r="C216" s="2">
         <v>183000</v>
       </c>
-      <c r="E216" s="8"/>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D216" t="s">
+        <v>39</v>
+      </c>
+      <c r="E216" s="9">
+        <v>42229</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>19</v>
       </c>
@@ -3496,9 +4300,14 @@
       <c r="C217" s="2">
         <v>178000</v>
       </c>
-      <c r="E217" s="8"/>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D217" t="s">
+        <v>38</v>
+      </c>
+      <c r="E217" s="9">
+        <v>42229</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>1</v>
       </c>
@@ -3508,9 +4317,14 @@
       <c r="C218" s="2">
         <v>106000</v>
       </c>
-      <c r="E218" s="8"/>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D218" t="s">
+        <v>39</v>
+      </c>
+      <c r="E218" s="9">
+        <v>42229</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>4</v>
       </c>
@@ -3520,9 +4334,14 @@
       <c r="C219" s="2">
         <v>128000</v>
       </c>
-      <c r="E219" s="8"/>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D219" t="s">
+        <v>40</v>
+      </c>
+      <c r="E219" s="9">
+        <v>42230</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>14</v>
       </c>
@@ -3532,9 +4351,14 @@
       <c r="C220" s="2">
         <v>267000</v>
       </c>
-      <c r="E220" s="8"/>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D220" t="s">
+        <v>39</v>
+      </c>
+      <c r="E220" s="9">
+        <v>42230</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>9</v>
       </c>
@@ -3544,9 +4368,14 @@
       <c r="C221" s="2">
         <v>168000</v>
       </c>
-      <c r="E221" s="8"/>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D221" t="s">
+        <v>39</v>
+      </c>
+      <c r="E221" s="9">
+        <v>42231</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>4</v>
       </c>
@@ -3556,9 +4385,14 @@
       <c r="C222" s="2">
         <v>128000</v>
       </c>
-      <c r="E222" s="8"/>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D222" t="s">
+        <v>39</v>
+      </c>
+      <c r="E222" s="9">
+        <v>42232</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>19</v>
       </c>
@@ -3568,9 +4402,14 @@
       <c r="C223" s="2">
         <v>137000</v>
       </c>
-      <c r="E223" s="8"/>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D223" t="s">
+        <v>39</v>
+      </c>
+      <c r="E223" s="9">
+        <v>42233</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>18</v>
       </c>
@@ -3580,9 +4419,14 @@
       <c r="C224" s="2">
         <v>146000</v>
       </c>
-      <c r="E224" s="8"/>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D224" t="s">
+        <v>39</v>
+      </c>
+      <c r="E224" s="9">
+        <v>42233</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>19</v>
       </c>
@@ -3592,9 +4436,14 @@
       <c r="C225" s="2">
         <v>194000</v>
       </c>
-      <c r="E225" s="8"/>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D225" t="s">
+        <v>37</v>
+      </c>
+      <c r="E225" s="9">
+        <v>42233</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>7</v>
       </c>
@@ -3604,9 +4453,14 @@
       <c r="C226" s="2">
         <v>207000</v>
       </c>
-      <c r="E226" s="8"/>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D226" t="s">
+        <v>38</v>
+      </c>
+      <c r="E226" s="9">
+        <v>42234</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>1</v>
       </c>
@@ -3616,9 +4470,14 @@
       <c r="C227" s="2">
         <v>190000</v>
       </c>
-      <c r="E227" s="8"/>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D227" t="s">
+        <v>39</v>
+      </c>
+      <c r="E227" s="9">
+        <v>42234</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>9</v>
       </c>
@@ -3628,9 +4487,14 @@
       <c r="C228" s="2">
         <v>168000</v>
       </c>
-      <c r="E228" s="8"/>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D228" t="s">
+        <v>40</v>
+      </c>
+      <c r="E228" s="9">
+        <v>42234</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>4</v>
       </c>
@@ -3640,9 +4504,14 @@
       <c r="C229" s="2">
         <v>175000</v>
       </c>
-      <c r="E229" s="8"/>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D229" t="s">
+        <v>39</v>
+      </c>
+      <c r="E229" s="9">
+        <v>42234</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>14</v>
       </c>
@@ -3652,9 +4521,14 @@
       <c r="C230" s="2">
         <v>80000</v>
       </c>
-      <c r="E230" s="8"/>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D230" t="s">
+        <v>39</v>
+      </c>
+      <c r="E230" s="9">
+        <v>42235</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>18</v>
       </c>
@@ -3664,9 +4538,14 @@
       <c r="C231" s="2">
         <v>184000</v>
       </c>
-      <c r="E231" s="8"/>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D231" t="s">
+        <v>38</v>
+      </c>
+      <c r="E231" s="9">
+        <v>42235</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>9</v>
       </c>
@@ -3676,9 +4555,14 @@
       <c r="C232" s="2">
         <v>191000</v>
       </c>
-      <c r="E232" s="8"/>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D232" t="s">
+        <v>39</v>
+      </c>
+      <c r="E232" s="9">
+        <v>42236</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>1</v>
       </c>
@@ -3688,9 +4572,14 @@
       <c r="C233" s="2">
         <v>184000</v>
       </c>
-      <c r="E233" s="8"/>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D233" t="s">
+        <v>39</v>
+      </c>
+      <c r="E233" s="9">
+        <v>42236</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>18</v>
       </c>
@@ -3700,9 +4589,14 @@
       <c r="C234" s="2">
         <v>186000</v>
       </c>
-      <c r="E234" s="8"/>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D234" t="s">
+        <v>39</v>
+      </c>
+      <c r="E234" s="9">
+        <v>42237</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>3</v>
       </c>
@@ -3712,9 +4606,14 @@
       <c r="C235" s="2">
         <v>22000</v>
       </c>
-      <c r="E235" s="8"/>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D235" t="s">
+        <v>39</v>
+      </c>
+      <c r="E235" s="9">
+        <v>42237</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>1</v>
       </c>
@@ -3724,9 +4623,14 @@
       <c r="C236" s="2">
         <v>61000</v>
       </c>
-      <c r="E236" s="8"/>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D236" t="s">
+        <v>39</v>
+      </c>
+      <c r="E236" s="9">
+        <v>42237</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>1</v>
       </c>
@@ -3736,9 +4640,14 @@
       <c r="C237" s="2">
         <v>162000</v>
       </c>
-      <c r="E237" s="8"/>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D237" t="s">
+        <v>40</v>
+      </c>
+      <c r="E237" s="9">
+        <v>42237</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>16</v>
       </c>
@@ -3748,9 +4657,14 @@
       <c r="C238" s="2">
         <v>190000</v>
       </c>
-      <c r="E238" s="8"/>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D238" t="s">
+        <v>39</v>
+      </c>
+      <c r="E238" s="9">
+        <v>42238</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>18</v>
       </c>
@@ -3760,9 +4674,14 @@
       <c r="C239" s="2">
         <v>180000</v>
       </c>
-      <c r="E239" s="8"/>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D239" t="s">
+        <v>40</v>
+      </c>
+      <c r="E239" s="9">
+        <v>42238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>18</v>
       </c>
@@ -3772,9 +4691,14 @@
       <c r="C240" s="2">
         <v>232000</v>
       </c>
-      <c r="E240" s="8"/>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D240" t="s">
+        <v>39</v>
+      </c>
+      <c r="E240" s="9">
+        <v>42238</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>14</v>
       </c>
@@ -3784,9 +4708,14 @@
       <c r="C241" s="2">
         <v>280000</v>
       </c>
-      <c r="E241" s="8"/>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D241" t="s">
+        <v>39</v>
+      </c>
+      <c r="E241" s="9">
+        <v>42239</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>1</v>
       </c>
@@ -3796,9 +4725,14 @@
       <c r="C242" s="2">
         <v>190000</v>
       </c>
-      <c r="E242" s="8"/>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D242" t="s">
+        <v>38</v>
+      </c>
+      <c r="E242" s="9">
+        <v>42239</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>16</v>
       </c>
@@ -3808,9 +4742,14 @@
       <c r="C243" s="2">
         <v>158000</v>
       </c>
-      <c r="E243" s="8"/>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D243" t="s">
+        <v>37</v>
+      </c>
+      <c r="E243" s="9">
+        <v>42239</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>14</v>
       </c>
@@ -3820,9 +4759,14 @@
       <c r="C244" s="2">
         <v>90000</v>
       </c>
-      <c r="E244" s="8"/>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D244" t="s">
+        <v>39</v>
+      </c>
+      <c r="E244" s="9">
+        <v>42240</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>18</v>
       </c>
@@ -3832,9 +4776,14 @@
       <c r="C245" s="2">
         <v>184000</v>
       </c>
-      <c r="E245" s="8"/>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D245" t="s">
+        <v>37</v>
+      </c>
+      <c r="E245" s="9">
+        <v>42241</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>1</v>
       </c>
@@ -3844,9 +4793,14 @@
       <c r="C246" s="2">
         <v>56000</v>
       </c>
-      <c r="E246" s="8"/>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D246" t="s">
+        <v>39</v>
+      </c>
+      <c r="E246" s="9">
+        <v>42242</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>14</v>
       </c>
@@ -3856,9 +4810,14 @@
       <c r="C247" s="2">
         <v>179000</v>
       </c>
-      <c r="E247" s="8"/>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D247" t="s">
+        <v>39</v>
+      </c>
+      <c r="E247" s="9">
+        <v>42242</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>9</v>
       </c>
@@ -3868,9 +4827,14 @@
       <c r="C248" s="2">
         <v>197000</v>
       </c>
-      <c r="E248" s="8"/>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D248" t="s">
+        <v>39</v>
+      </c>
+      <c r="E248" s="9">
+        <v>42243</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>9</v>
       </c>
@@ -3880,9 +4844,14 @@
       <c r="C249" s="2">
         <v>191000</v>
       </c>
-      <c r="E249" s="8"/>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D249" t="s">
+        <v>40</v>
+      </c>
+      <c r="E249" s="9">
+        <v>42244</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>19</v>
       </c>
@@ -3892,9 +4861,14 @@
       <c r="C250" s="2">
         <v>201000</v>
       </c>
-      <c r="E250" s="8"/>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D250" t="s">
+        <v>37</v>
+      </c>
+      <c r="E250" s="9">
+        <v>42244</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>16</v>
       </c>
@@ -3904,9 +4878,14 @@
       <c r="C251" s="2">
         <v>209000</v>
       </c>
-      <c r="E251" s="8"/>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D251" t="s">
+        <v>40</v>
+      </c>
+      <c r="E251" s="9">
+        <v>42244</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>1</v>
       </c>
@@ -3916,9 +4895,14 @@
       <c r="C252" s="2">
         <v>200000</v>
       </c>
-      <c r="E252" s="8"/>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D252" t="s">
+        <v>39</v>
+      </c>
+      <c r="E252" s="9">
+        <v>42244</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>14</v>
       </c>
@@ -3928,9 +4912,14 @@
       <c r="C253" s="2">
         <v>300000</v>
       </c>
-      <c r="E253" s="8"/>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D253" t="s">
+        <v>39</v>
+      </c>
+      <c r="E253" s="9">
+        <v>42245</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>4</v>
       </c>
@@ -3940,9 +4929,14 @@
       <c r="C254" s="2">
         <v>197000</v>
       </c>
-      <c r="E254" s="8"/>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D254" t="s">
+        <v>39</v>
+      </c>
+      <c r="E254" s="9">
+        <v>42245</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>16</v>
       </c>
@@ -3952,9 +4946,14 @@
       <c r="C255" s="2">
         <v>191000</v>
       </c>
-      <c r="E255" s="8"/>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D255" t="s">
+        <v>39</v>
+      </c>
+      <c r="E255" s="9">
+        <v>42245</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>1</v>
       </c>
@@ -3964,9 +4963,14 @@
       <c r="C256" s="2">
         <v>211000</v>
       </c>
-      <c r="E256" s="8"/>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D256" t="s">
+        <v>39</v>
+      </c>
+      <c r="E256" s="9">
+        <v>42245</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>16</v>
       </c>
@@ -3976,9 +4980,14 @@
       <c r="C257" s="2">
         <v>182000</v>
       </c>
-      <c r="E257" s="8"/>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D257" t="s">
+        <v>39</v>
+      </c>
+      <c r="E257" s="9">
+        <v>42246</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>28</v>
       </c>
@@ -3988,9 +4997,14 @@
       <c r="C258" s="2">
         <v>109000</v>
       </c>
-      <c r="E258" s="8"/>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D258" t="s">
+        <v>39</v>
+      </c>
+      <c r="E258" s="9">
+        <v>42246</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>19</v>
       </c>
@@ -4000,10 +5014,15 @@
       <c r="C259" s="2">
         <v>201000</v>
       </c>
-      <c r="E259" s="8"/>
+      <c r="D259" t="s">
+        <v>39</v>
+      </c>
+      <c r="E259" s="9">
+        <v>42246</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E259">
+  <sortState ref="A2:E259">
     <sortCondition ref="E4"/>
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
